--- a/Data_processed/industry/food.xlsx
+++ b/Data_processed/industry/food.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/food.xlsx
+++ b/Data_processed/industry/food.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +481,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>..2</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>climate change (kg CO2 eq)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -468,28 +518,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M.020.01.101.240319 Pre-baked frozen fries</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Material, Food, Potatoes and root vegetables</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Pre-baked frozen fries</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>2.435598866666667</v>
+      </c>
       <c r="E2" t="n">
-        <v>2.435598866666667</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.7910959e-05</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -498,28 +549,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M.020.01.102.240319 Potatoes without skin</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Material, Food, Potatoes and root vegetables</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Potatoes without skin</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>0.33944596</v>
+      </c>
       <c r="E3" t="n">
-        <v>0.33944596</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.4646541e-06</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -528,28 +580,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M.020.02.101.240319 Beer (bottle)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Material, Food, Alcoholic beverages</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Beer (bottle)</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>0.41408184</v>
+      </c>
       <c r="E4" t="n">
-        <v>0.41408184</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.15457e-05</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -558,28 +611,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M.020.02.102.240319 Young gin</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Material, Food, Alcoholic beverages</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Young gin</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>2.3025538</v>
+      </c>
       <c r="E5" t="n">
-        <v>2.3025538</v>
-      </c>
-      <c r="F5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.4201309e-05</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -588,28 +642,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M.020.02.103.240319 Wine red</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Material, Food, Alcoholic beverages</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Wine red</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>1.867263266666667</v>
+      </c>
       <c r="E6" t="n">
-        <v>1.867263266666667</v>
-      </c>
-      <c r="F6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.2064254e-05</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -618,28 +673,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M.020.02.104.240319 Wine rose</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Material, Food, Alcoholic beverages</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Wine rose</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>1.9821626</v>
+      </c>
       <c r="E7" t="n">
-        <v>1.9821626</v>
-      </c>
-      <c r="F7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.5267952e-05</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -648,28 +704,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M.020.02.105.240319 Wine white dry</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Material, Food, Alcoholic beverages</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Wine white dry</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>2.097061866666667</v>
+      </c>
       <c r="E8" t="n">
-        <v>2.097061866666667</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.847165e-05</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -678,28 +735,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M.020.03.101.240319 Baguette white</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Baguette white</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>0.9990498</v>
+      </c>
       <c r="E9" t="n">
-        <v>0.9990498</v>
-      </c>
-      <c r="F9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.785616e-05</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -708,28 +766,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M.020.03.102.240319 Bread multigrain</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Bread multigrain</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>0.9714822666666667</v>
+      </c>
       <c r="E10" t="n">
-        <v>0.9714822666666667</v>
-      </c>
-      <c r="F10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.7087503e-05</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -738,28 +797,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M.020.03.103.240319 Bread rye</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Bread rye</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>1.180234466666667</v>
+      </c>
       <c r="E11" t="n">
-        <v>1.180234466666667</v>
-      </c>
-      <c r="F11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.2908068e-05</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -768,28 +828,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M.020.03.104.240319 Bread white water</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Bread white water</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>0.9649563333333333</v>
+      </c>
       <c r="E12" t="n">
-        <v>0.9649563333333333</v>
-      </c>
-      <c r="F12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.6905544e-05</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -798,28 +859,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M.020.03.105.240319 Bread whole wheat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Bread whole wheat</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>0.8261088</v>
+      </c>
       <c r="E13" t="n">
-        <v>0.8261088</v>
-      </c>
-      <c r="F13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.3034105e-05</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -828,28 +890,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M.020.03.106.240319 Currant Bun</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Currant Bun</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>1.435455</v>
+      </c>
       <c r="E14" t="n">
-        <v>1.435455</v>
-      </c>
-      <c r="F14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.0024295e-05</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -858,28 +921,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M.020.03.107.240319 Crispbread</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Crispbread</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>1.501432866666667</v>
+      </c>
       <c r="E15" t="n">
-        <v>1.501432866666667</v>
-      </c>
-      <c r="F15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.1863932e-05</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -888,28 +952,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M.020.03.108.240319 Croissant</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Croissant</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>2.049475666666666</v>
+      </c>
       <c r="E16" t="n">
-        <v>2.049475666666666</v>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.7144821e-05</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -918,28 +983,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>M.020.03.109.240319 White bread hard</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>White bread hard</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>0.9649563333333333</v>
+      </c>
       <c r="E17" t="n">
-        <v>0.9649563333333333</v>
-      </c>
-      <c r="F17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.6905544e-05</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -948,28 +1014,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M.020.03.110.240319 White bread soft</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Material, Food, Bread</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>White bread soft</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>0.9649563333333333</v>
+      </c>
       <c r="E18" t="n">
-        <v>0.9649563333333333</v>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.6905544e-05</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -978,28 +1045,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M.020.04.101.240319 Mealworms</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Material, Food, Miscellaneous</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Mealworms</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>3.3039532</v>
+      </c>
       <c r="E19" t="n">
-        <v>3.3039532</v>
-      </c>
-      <c r="F19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.2122982e-05</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1008,28 +1076,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M.020.04.102.240319 Seaweed kelp raw</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Material, Food, Miscellaneous</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>Seaweed kelp raw</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>0.4620491400000001</v>
+      </c>
       <c r="E20" t="n">
-        <v>0.4620491400000001</v>
-      </c>
-      <c r="F20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.2883156e-05</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1038,28 +1107,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M.020.05.101.240319 Chicken egg</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Material, Food, Eggs</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>Chicken egg</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>3.355513466666666</v>
+      </c>
       <c r="E21" t="n">
-        <v>3.355513466666666</v>
-      </c>
-      <c r="F21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.3560619e-05</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1068,28 +1138,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M.020.06.101.240319 Applesauce (can)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>Applesauce (can)</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>1.654060066666667</v>
+      </c>
       <c r="E22" t="n">
-        <v>1.654060066666667</v>
-      </c>
-      <c r="F22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.6119584e-05</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1098,28 +1169,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M.020.06.102.240319 Applesauce (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>Applesauce (glass)</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>1.714149933333333</v>
+      </c>
       <c r="E23" t="n">
-        <v>1.714149933333333</v>
-      </c>
-      <c r="F23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.7795048e-05</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1128,28 +1200,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M.020.06.103.240319 Apple</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>Apple</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>0.3155670866666667</v>
+      </c>
       <c r="E24" t="n">
-        <v>0.3155670866666667</v>
-      </c>
-      <c r="F24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.798847699999999e-06</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1158,28 +1231,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M.020.06.104.240319 Apricots</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>Apricots</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>0.7234780666666667</v>
+      </c>
       <c r="E25" t="n">
-        <v>0.7234780666666667</v>
-      </c>
-      <c r="F25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.0172488e-05</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1188,28 +1262,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M.020.06.105.240319 Avocado</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>Avocado</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>0.66538404</v>
+      </c>
       <c r="E26" t="n">
-        <v>0.66538404</v>
-      </c>
-      <c r="F26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8552673e-05</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1218,28 +1293,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M.020.06.106.240319 Banana</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>Banana</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>0.35141156</v>
+      </c>
       <c r="E27" t="n">
-        <v>0.35141156</v>
-      </c>
-      <c r="F27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.7982868e-06</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1248,28 +1324,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M.020.06.107.240319 Coconut milk (can)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>Coconut milk (can)</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>1.225393466666667</v>
+      </c>
       <c r="E28" t="n">
-        <v>1.225393466666667</v>
-      </c>
-      <c r="F28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.4167222e-05</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1278,28 +1355,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M.020.06.108.240319 Coconut milk (pack)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>Coconut milk (pack)</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>0.7394819333333335</v>
+      </c>
       <c r="E29" t="n">
-        <v>0.7394819333333335</v>
-      </c>
-      <c r="F29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.0618718e-05</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1308,28 +1386,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>M.020.06.109.240319 Dates - dried</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>Dates - dried</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>1.527382266666667</v>
+      </c>
       <c r="E30" t="n">
-        <v>1.527382266666667</v>
-      </c>
-      <c r="F30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.258747e-05</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1338,28 +1417,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M.020.06.110.240319 Figs - dried</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>Figs - dried</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>2.435244333333333</v>
+      </c>
       <c r="E31" t="n">
-        <v>2.435244333333333</v>
-      </c>
-      <c r="F31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.7901074e-05</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1368,28 +1448,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>M.020.06.111.240319 Figs</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>Figs</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>0.7153288000000001</v>
+      </c>
       <c r="E32" t="n">
-        <v>0.7153288000000001</v>
-      </c>
-      <c r="F32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.9945265e-05</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1398,28 +1479,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>M.020.06.112.240319 Fruit snack</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>Fruit snack</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>1.190355</v>
+      </c>
       <c r="E33" t="n">
-        <v>1.190355</v>
-      </c>
-      <c r="F33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.3190255e-05</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1428,28 +1510,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>M.020.06.113.240319 Grapes</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>Grapes</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>0.6294577466666667</v>
+      </c>
       <c r="E34" t="n">
-        <v>0.6294577466666667</v>
-      </c>
-      <c r="F34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.7550952e-05</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1458,28 +1541,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>M.020.06.114.240319 Kiwi</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>Kiwi</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>0.4117057</v>
+      </c>
       <c r="E35" t="n">
-        <v>0.4117057</v>
-      </c>
-      <c r="F35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.1479447e-05</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1488,28 +1572,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>M.020.06.115.240319 Lemon</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>Lemon</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>0.3979265066666667</v>
+      </c>
       <c r="E36" t="n">
-        <v>0.3979265066666667</v>
-      </c>
-      <c r="F36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.1095247e-05</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1518,28 +1603,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>M.020.06.116.240319 Mandarine</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>Mandarine</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>0.4474760333333333</v>
+      </c>
       <c r="E37" t="n">
-        <v>0.4474760333333333</v>
-      </c>
-      <c r="F37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.2476819e-05</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1548,28 +1634,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>M.020.06.117.240319 Mango</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t>Mango</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>1.032382333333334</v>
+      </c>
       <c r="E38" t="n">
-        <v>1.032382333333334</v>
-      </c>
-      <c r="F38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.8785558e-05</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1578,28 +1665,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>M.020.06.118.240319 Honeydew melon</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>Honeydew melon</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>0.53043632</v>
+      </c>
       <c r="E39" t="n">
-        <v>0.53043632</v>
-      </c>
-      <c r="F39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.4789972e-05</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1608,28 +1696,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>M.020.06.119.240319 Olives (can)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>Olives (can)</t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>1.3993116</v>
+      </c>
       <c r="E40" t="n">
-        <v>1.3993116</v>
-      </c>
-      <c r="F40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.9016521e-05</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1638,28 +1727,29 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>M.020.06.120.240319 Olives (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>Olives (glass)</t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>1.459401466666667</v>
+      </c>
       <c r="E41" t="n">
-        <v>1.459401466666667</v>
-      </c>
-      <c r="F41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.0691985e-05</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1668,28 +1758,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>M.020.06.121.240319 Orange</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>Orange</t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>0.3657115533333333</v>
+      </c>
       <c r="E42" t="n">
-        <v>0.3657115533333333</v>
-      </c>
-      <c r="F42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0197009e-05</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1698,28 +1789,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>M.020.06.122.240319 Peach</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>Peach</t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>0.38643934</v>
+      </c>
       <c r="E43" t="n">
-        <v>0.38643934</v>
-      </c>
-      <c r="F43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0774954e-05</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1728,28 +1820,29 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>M.020.06.123.240319 Pineapple</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t>Pineapple</t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>0.32129992</v>
+      </c>
       <c r="E44" t="n">
-        <v>0.32129992</v>
-      </c>
-      <c r="F44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.9586943e-06</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1758,28 +1851,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>M.020.06.124.240319 Strawberries</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Material, Food, Fruit</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>Strawberries</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>4.521905400000001</v>
+      </c>
       <c r="E45" t="n">
-        <v>4.521905400000001</v>
-      </c>
-      <c r="F45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.00012608272</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1788,28 +1882,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>M.020.07.101.240319 Stuffed biscuit</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
           <t>Stuffed biscuit</t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>3.358718333333333</v>
+      </c>
       <c r="E46" t="n">
-        <v>3.358718333333333</v>
-      </c>
-      <c r="F46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.3649979e-05</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1818,28 +1913,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>M.020.07.102.240319 Apple pie with butter</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>Apple pie with butter</t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>3.022830066666667</v>
+      </c>
       <c r="E47" t="n">
-        <v>3.022830066666667</v>
-      </c>
-      <c r="F47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.4284522e-05</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1848,28 +1944,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>M.020.07.103.240319 Apple pie with margarine</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>Apple pie with margarine</t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>1.930590066666667</v>
+      </c>
       <c r="E48" t="n">
-        <v>1.930590066666667</v>
-      </c>
-      <c r="F48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.3829974e-05</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1878,28 +1975,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>M.020.07.104.240319 Biscuit - wheat/whole wheat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>Biscuit - wheat/whole wheat</t>
         </is>
       </c>
+      <c r="D49" t="n">
+        <v>3.016632933333334</v>
+      </c>
       <c r="E49" t="n">
-        <v>3.016632933333334</v>
-      </c>
-      <c r="F49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8.411173000000001e-05</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1908,28 +2006,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M.020.07.105.240319 Biscuit - fruit</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>Biscuit - fruit</t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>2.311347266666667</v>
+      </c>
       <c r="E50" t="n">
-        <v>2.311347266666667</v>
-      </c>
-      <c r="F50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.4446495e-05</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1938,28 +2037,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>M.020.07.106.240319 Biscuit</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>Biscuit</t>
         </is>
       </c>
+      <c r="D51" t="n">
+        <v>2.645539266666667</v>
+      </c>
       <c r="E51" t="n">
-        <v>2.645539266666667</v>
-      </c>
-      <c r="F51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.376465500000001e-05</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1968,28 +2068,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M.020.07.107.240319 Gingerbread</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>Gingerbread</t>
         </is>
       </c>
+      <c r="D52" t="n">
+        <v>1.133148466666667</v>
+      </c>
       <c r="E52" t="n">
-        <v>1.133148466666667</v>
-      </c>
-      <c r="F52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.1595186e-05</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1998,28 +2099,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>M.020.07.108.240319 Cake with butter</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>Cake with butter</t>
         </is>
       </c>
+      <c r="D53" t="n">
+        <v>4.972804000000001</v>
+      </c>
       <c r="E53" t="n">
-        <v>4.972804000000001</v>
-      </c>
-      <c r="F53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.00013865497</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2028,28 +2130,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>M.020.07.109.240319 Cake without butter</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
           <t>Cake without butter</t>
         </is>
       </c>
+      <c r="D54" t="n">
+        <v>2.789530066666667</v>
+      </c>
       <c r="E54" t="n">
-        <v>2.789530066666667</v>
-      </c>
-      <c r="F54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.7779499e-05</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2058,28 +2161,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>M.020.07.110.240319 Syrup waffle</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Material, Food, Pastries and cookies</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
           <t>Syrup waffle</t>
         </is>
       </c>
+      <c r="D55" t="n">
+        <v>3.313532133333334</v>
+      </c>
       <c r="E55" t="n">
-        <v>3.313532133333334</v>
-      </c>
-      <c r="F55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.2390068e-05</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2088,28 +2192,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>M.020.08.101.240319 Bread dough, pizza base/pie</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Material, Food, Grain products and binders</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
           <t>Bread dough, pizza base/pie</t>
         </is>
       </c>
+      <c r="D56" t="n">
+        <v>1.201833</v>
+      </c>
       <c r="E56" t="n">
-        <v>1.201833</v>
-      </c>
-      <c r="F56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.3510294e-05</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2118,28 +2223,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>M.020.08.102.240319 Wheat flour</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Material, Food, Grain products and binders</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
           <t>Wheat flour</t>
         </is>
       </c>
+      <c r="D57" t="n">
+        <v>0.8148748</v>
+      </c>
       <c r="E57" t="n">
-        <v>0.8148748</v>
-      </c>
-      <c r="F57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.2720871e-05</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2148,28 +2254,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>M.020.08.103.240319 Muesli - crispy with fruit</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Material, Food, Grain products and binders</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
           <t>Muesli - crispy with fruit</t>
         </is>
       </c>
+      <c r="D58" t="n">
+        <v>1.621809</v>
+      </c>
       <c r="E58" t="n">
-        <v>1.621809</v>
-      </c>
-      <c r="F58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.5220338e-05</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2178,28 +2285,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>M.020.08.104.240319 Oatmeal</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Material, Food, Grain products and binders</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
           <t>Oatmeal</t>
         </is>
       </c>
+      <c r="D59" t="n">
+        <v>0.9792808</v>
+      </c>
       <c r="E59" t="n">
-        <v>0.9792808</v>
-      </c>
-      <c r="F59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.7304946e-05</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2208,28 +2316,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>M.020.08.105.240319 Pasta</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Material, Food, Grain products and binders</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
           <t>Pasta</t>
         </is>
       </c>
+      <c r="D60" t="n">
+        <v>1.159986066666667</v>
+      </c>
       <c r="E60" t="n">
-        <v>1.159986066666667</v>
-      </c>
-      <c r="F60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.234349e-05</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2238,28 +2347,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>M.020.08.106.240319 Rice - pericarp</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Material, Food, Grain products and binders</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
           <t>Rice - pericarp</t>
         </is>
       </c>
+      <c r="D61" t="n">
+        <v>1.971067066666667</v>
+      </c>
       <c r="E61" t="n">
-        <v>1.971067066666667</v>
-      </c>
-      <c r="F61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5.4958579e-05</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2268,28 +2378,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>M.020.08.107.240319 Rice - white</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Material, Food, Grain products and binders</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
           <t>Rice - white</t>
         </is>
       </c>
+      <c r="D62" t="n">
+        <v>2.300701</v>
+      </c>
       <c r="E62" t="n">
-        <v>2.300701</v>
-      </c>
-      <c r="F62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.4149648e-05</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2298,28 +2409,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>M.020.09.101.240319 Bean sprouts</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
           <t>Bean sprouts</t>
         </is>
       </c>
+      <c r="D63" t="n">
+        <v>1.3962032</v>
+      </c>
       <c r="E63" t="n">
-        <v>1.3962032</v>
-      </c>
-      <c r="F63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.8929851e-05</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2328,28 +2440,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>M.020.09.102.240319 Frozen green beans (plastic)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
           <t>Frozen green beans (plastic)</t>
         </is>
       </c>
+      <c r="D64" t="n">
+        <v>0.8413473333333334</v>
+      </c>
       <c r="E64" t="n">
-        <v>0.8413473333333334</v>
-      </c>
-      <c r="F64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.3458996e-05</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2358,28 +2471,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>M.020.09.103.240319 Green beans (can)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>Green beans (can)</t>
         </is>
       </c>
+      <c r="D65" t="n">
+        <v>1.280271666666667</v>
+      </c>
       <c r="E65" t="n">
-        <v>1.280271666666667</v>
-      </c>
-      <c r="F65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.5697371e-05</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2388,28 +2502,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>M.020.09.104.240319 Green beans (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
           <t>Green beans (glass)</t>
         </is>
       </c>
+      <c r="D66" t="n">
+        <v>1.340361466666667</v>
+      </c>
       <c r="E66" t="n">
-        <v>1.340361466666667</v>
-      </c>
-      <c r="F66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.7372835e-05</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2418,28 +2533,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>M.020.09.105.240319 Green beans (plastic)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
           <t>Green beans (plastic)</t>
         </is>
       </c>
+      <c r="D67" t="n">
+        <v>0.4835880866666667</v>
+      </c>
       <c r="E67" t="n">
-        <v>0.4835880866666667</v>
-      </c>
-      <c r="F67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.3483719e-05</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2448,28 +2564,29 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>M.020.09.106.240319 Broccoli</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
           <t>Broccoli</t>
         </is>
       </c>
+      <c r="D68" t="n">
+        <v>0.5659321466666667</v>
+      </c>
       <c r="E68" t="n">
-        <v>0.5659321466666667</v>
-      </c>
-      <c r="F68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.577969e-05</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2478,28 +2595,29 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>M.020.09.107.240319 Carrot</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>Carrot</t>
         </is>
       </c>
+      <c r="D69" t="n">
+        <v>0.2393435266666667</v>
+      </c>
       <c r="E69" t="n">
-        <v>0.2393435266666667</v>
-      </c>
-      <c r="F69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.6735327e-06</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2508,28 +2626,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>M.020.09.108.240319 Cauliflower</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
           <t>Cauliflower</t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>0.5659321466666667</v>
+      </c>
       <c r="E70" t="n">
-        <v>0.5659321466666667</v>
-      </c>
-      <c r="F70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.577969e-05</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2538,28 +2657,29 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>M.020.09.109.240319 Chicory</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
           <t>Chicory</t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>0.3190143333333333</v>
+      </c>
       <c r="E71" t="n">
-        <v>0.3190143333333333</v>
-      </c>
-      <c r="F71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8.894966000000001e-06</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2568,28 +2688,29 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>M.020.09.110.240319 Zucchini</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>Zucchini</t>
         </is>
       </c>
+      <c r="D72" t="n">
+        <v>1.493483733333334</v>
+      </c>
       <c r="E72" t="n">
-        <v>1.493483733333334</v>
-      </c>
-      <c r="F72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.164229e-05</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2598,28 +2719,29 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>M.020.09.111.240319 Cucumber with peel</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
           <t>Cucumber with peel</t>
         </is>
       </c>
+      <c r="D73" t="n">
+        <v>1.392199933333333</v>
+      </c>
       <c r="E73" t="n">
-        <v>1.392199933333333</v>
-      </c>
-      <c r="F73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.8818228e-05</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2628,28 +2750,29 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>M.020.09.112.240319 Kale</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
           <t>Kale</t>
         </is>
       </c>
+      <c r="D74" t="n">
+        <v>0.3624312533333334</v>
+      </c>
       <c r="E74" t="n">
-        <v>0.3624312533333334</v>
-      </c>
-      <c r="F74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0105545e-05</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2658,28 +2781,29 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>M.020.09.113.240319 Lettuce, medium</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
           <t>Lettuce, medium</t>
         </is>
       </c>
+      <c r="D75" t="n">
+        <v>0.35195816</v>
+      </c>
       <c r="E75" t="n">
-        <v>0.35195816</v>
-      </c>
-      <c r="F75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9.8135275e-06</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2688,28 +2812,29 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>M.020.09.114.240319 Lettuce</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
           <t>Lettuce</t>
         </is>
       </c>
+      <c r="D76" t="n">
+        <v>0.35195816</v>
+      </c>
       <c r="E76" t="n">
-        <v>0.35195816</v>
-      </c>
-      <c r="F76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.8135275e-06</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2718,28 +2843,29 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>M.020.09.115.240319 Mushrooms</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
           <t>Mushrooms</t>
         </is>
       </c>
+      <c r="D77" t="n">
+        <v>1.9157866</v>
+      </c>
       <c r="E77" t="n">
-        <v>1.9157866</v>
-      </c>
-      <c r="F77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.3417214e-05</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2748,28 +2874,29 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>M.020.09.116.240319 Onion</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
           <t>Onion</t>
         </is>
       </c>
+      <c r="D78" t="n">
+        <v>0.2876371266666667</v>
+      </c>
       <c r="E78" t="n">
-        <v>0.2876371266666667</v>
-      </c>
-      <c r="F78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8.0200863e-06</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2778,28 +2905,29 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>M.020.09.117.240319 Peas with carrots (canned)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
           <t>Peas with carrots (canned)</t>
         </is>
       </c>
+      <c r="D79" t="n">
+        <v>1.3739666</v>
+      </c>
       <c r="E79" t="n">
-        <v>1.3739666</v>
-      </c>
-      <c r="F79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.8309835e-05</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2808,28 +2936,29 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>M.020.09.118.240319 Peas with carrots (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>Peas with carrots (glass)</t>
         </is>
       </c>
+      <c r="D80" t="n">
+        <v>1.4340564</v>
+      </c>
       <c r="E80" t="n">
-        <v>1.4340564</v>
-      </c>
-      <c r="F80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.9985298e-05</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2838,28 +2967,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>M.020.09.119.240319 Peas - frozen</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
           <t>Peas - frozen</t>
         </is>
       </c>
+      <c r="D81" t="n">
+        <v>0.4865529933333334</v>
+      </c>
       <c r="E81" t="n">
-        <v>0.4865529933333334</v>
-      </c>
-      <c r="F81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.3566389e-05</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2868,28 +2998,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>M.020.09.120.240319 Spinach - frozen</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>Spinach - frozen</t>
         </is>
       </c>
+      <c r="D82" t="n">
+        <v>0.8188685333333333</v>
+      </c>
       <c r="E82" t="n">
-        <v>0.8188685333333333</v>
-      </c>
-      <c r="F82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.2832227e-05</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2898,28 +3029,29 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>M.020.09.121.240319 Bell pepper</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
           <t>Bell pepper</t>
         </is>
       </c>
+      <c r="D83" t="n">
+        <v>2.3590208</v>
+      </c>
       <c r="E83" t="n">
-        <v>2.3590208</v>
-      </c>
-      <c r="F83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6.5775759e-05</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2928,28 +3060,29 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>M.020.09.122.240319 Corn (canned)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
           <t>Corn (canned)</t>
         </is>
       </c>
+      <c r="D84" t="n">
+        <v>1.2813994</v>
+      </c>
       <c r="E84" t="n">
-        <v>1.2813994</v>
-      </c>
-      <c r="F84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.5728816e-05</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2958,28 +3091,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>M.020.09.123.240319 Corn (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
           <t>Corn (glass)</t>
         </is>
       </c>
+      <c r="D85" t="n">
+        <v>1.341489266666667</v>
+      </c>
       <c r="E85" t="n">
-        <v>1.341489266666667</v>
-      </c>
-      <c r="F85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.7404279e-05</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -2988,28 +3122,29 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>M.020.09.124.240319 Tomato</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Material, Food, Vegetable</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
           <t>Tomato</t>
         </is>
       </c>
+      <c r="D86" t="n">
+        <v>1.3251206</v>
+      </c>
       <c r="E86" t="n">
-        <v>1.3251206</v>
-      </c>
-      <c r="F86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.6947878e-05</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3018,28 +3153,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>M.020.10.101.240319 Fish salade</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sandwich filling</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
           <t>Fish salade</t>
         </is>
       </c>
+      <c r="D87" t="n">
+        <v>5.651115333333333</v>
+      </c>
       <c r="E87" t="n">
-        <v>5.651115333333333</v>
-      </c>
-      <c r="F87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.00015756809</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3048,28 +3184,29 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>M.020.10.102.240319 Hummus natural</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sandwich filling</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>Hummus natural</t>
         </is>
       </c>
+      <c r="D88" t="n">
+        <v>5.587265666666667</v>
+      </c>
       <c r="E88" t="n">
-        <v>5.587265666666667</v>
-      </c>
-      <c r="F88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.00015578779</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3078,28 +3215,29 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>M.020.10.103.240319 Peanut butter</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sandwich filling</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
           <t>Peanut butter</t>
         </is>
       </c>
+      <c r="D89" t="n">
+        <v>8.013583333333335</v>
+      </c>
       <c r="E89" t="n">
-        <v>8.013583333333335</v>
-      </c>
-      <c r="F89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00022343996</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3108,28 +3246,29 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>M.020.11.101.240319 Gravy from gravy powder  25% fat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sauces</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
           <t>Gravy from gravy powder  25% fat</t>
         </is>
       </c>
+      <c r="D90" t="n">
+        <v>1.416059533333333</v>
+      </c>
       <c r="E90" t="n">
-        <v>1.416059533333333</v>
-      </c>
-      <c r="F90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3.9483497e-05</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3138,28 +3277,29 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>M.020.11.102.240319 French fries sauce</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sauces</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>French fries sauce</t>
         </is>
       </c>
+      <c r="D91" t="n">
+        <v>2.506444466666667</v>
+      </c>
       <c r="E91" t="n">
-        <v>2.506444466666667</v>
-      </c>
-      <c r="F91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6.9886323e-05</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3168,28 +3308,29 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>M.020.11.103.240319 Mayonnaise</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sauces</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
           <t>Mayonnaise</t>
         </is>
       </c>
+      <c r="D92" t="n">
+        <v>5.065108733333333</v>
+      </c>
       <c r="E92" t="n">
-        <v>5.065108733333333</v>
-      </c>
-      <c r="F92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00014122867</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3198,28 +3339,29 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>M.020.11.104.240319 Oriental sauce (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sauces</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
           <t>Oriental sauce (glass)</t>
         </is>
       </c>
+      <c r="D93" t="n">
+        <v>1.867711466666667</v>
+      </c>
       <c r="E93" t="n">
-        <v>1.867711466666667</v>
-      </c>
-      <c r="F93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5.2076752e-05</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3228,28 +3370,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>M.020.11.105.240319 Tomato sauce (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Material, Food, Savory sauces</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
           <t>Tomato sauce (glass)</t>
         </is>
       </c>
+      <c r="D94" t="n">
+        <v>1.020430266666667</v>
+      </c>
       <c r="E94" t="n">
-        <v>1.020430266666667</v>
-      </c>
-      <c r="F94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.8452303e-05</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3258,28 +3401,29 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>M.020.12.101.240319 Potato Chips</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Material, Food, Savory snacks and pretzels</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>Potato Chips</t>
         </is>
       </c>
+      <c r="D95" t="n">
+        <v>4.187088333333334</v>
+      </c>
       <c r="E95" t="n">
-        <v>4.187088333333334</v>
-      </c>
-      <c r="F95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00011674713</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3288,28 +3432,29 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>M.020.12.102.240319 Croquette - beef</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Material, Food, Savory snacks and pretzels</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
           <t>Croquette - beef</t>
         </is>
       </c>
+      <c r="D96" t="n">
+        <v>5.858593733333334</v>
+      </c>
       <c r="E96" t="n">
-        <v>5.858593733333334</v>
-      </c>
-      <c r="F96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.00016335314</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3318,28 +3463,29 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>M.020.12.103.240319 Popcorn</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Material, Food, Savory snacks and pretzels</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
           <t>Popcorn</t>
         </is>
       </c>
+      <c r="D97" t="n">
+        <v>0.8088284666666666</v>
+      </c>
       <c r="E97" t="n">
-        <v>0.8088284666666666</v>
-      </c>
-      <c r="F97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2.2552284e-05</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3348,28 +3494,29 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>M.020.12.104.240319 Sausage roll</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Material, Food, Savory snacks and pretzels</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
           <t>Sausage roll</t>
         </is>
       </c>
+      <c r="D98" t="n">
+        <v>4.661663866666667</v>
+      </c>
       <c r="E98" t="n">
-        <v>4.661663866666667</v>
-      </c>
-      <c r="F98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.00012997956</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3378,28 +3525,29 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>M.020.12.105.240319 Frikandel</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Material, Food, Savory snacks and pretzels</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
           <t>Frikandel</t>
         </is>
       </c>
+      <c r="D99" t="n">
+        <v>3.473482466666666</v>
+      </c>
       <c r="E99" t="n">
-        <v>3.473482466666666</v>
-      </c>
-      <c r="F99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9.6849908e-05</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3408,28 +3556,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>M.020.13.101.240319 Cheese 20+</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Material, Food, Cheese</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
           <t>Cheese 20+</t>
         </is>
       </c>
+      <c r="D100" t="n">
+        <v>9.949182</v>
+      </c>
       <c r="E100" t="n">
-        <v>9.949182</v>
-      </c>
-      <c r="F100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.00027740958</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3438,28 +3587,29 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>M.020.13.102.240319 Cheese Edam 40+</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Material, Food, Cheese</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
           <t>Cheese Edam 40+</t>
         </is>
       </c>
+      <c r="D101" t="n">
+        <v>10.522404</v>
+      </c>
       <c r="E101" t="n">
-        <v>10.522404</v>
-      </c>
-      <c r="F101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.00029339255</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3468,28 +3618,29 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>M.020.13.103.240319 Goat cheese fresh</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Material, Food, Cheese</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
           <t>Goat cheese fresh</t>
         </is>
       </c>
+      <c r="D102" t="n">
+        <v>8.096267333333333</v>
+      </c>
       <c r="E102" t="n">
-        <v>8.096267333333333</v>
-      </c>
-      <c r="F102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.00022574541</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3498,28 +3649,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>M.020.13.104.240319 Cheese Gouda 48+</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Material, Food, Cheese</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
           <t>Cheese Gouda 48+</t>
         </is>
       </c>
+      <c r="D103" t="n">
+        <v>12.53436133333333</v>
+      </c>
       <c r="E103" t="n">
-        <v>12.53436133333333</v>
-      </c>
-      <c r="F103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.00034949124</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3528,28 +3680,29 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>M.020.13.105.240319 Mozzarella</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Material, Food, Cheese</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
           <t>Mozzarella</t>
         </is>
       </c>
+      <c r="D104" t="n">
+        <v>8.050284000000001</v>
+      </c>
       <c r="E104" t="n">
-        <v>8.050284000000001</v>
-      </c>
-      <c r="F104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.00022446328</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3558,28 +3711,29 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>M.020.13.106.240319 Aged cheese 48+</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Material, Food, Cheese</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>Aged cheese 48+</t>
         </is>
       </c>
+      <c r="D105" t="n">
+        <v>12.53436133333333</v>
+      </c>
       <c r="E105" t="n">
-        <v>12.53436133333333</v>
-      </c>
-      <c r="F105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.00034949124</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3588,28 +3742,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>M.020.13.107.240319 Cheese spread 48+</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Material, Food, Cheese</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>Cheese spread 48+</t>
         </is>
       </c>
+      <c r="D106" t="n">
+        <v>8.314602000000001</v>
+      </c>
       <c r="E106" t="n">
-        <v>8.314602000000001</v>
-      </c>
-      <c r="F106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.00023183316</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3618,28 +3773,29 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>M.020.14.101.240319 Stock cube - vegetable</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Material, Food, Herbs and spices</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>Stock cube - vegetable</t>
         </is>
       </c>
+      <c r="D107" t="n">
+        <v>2.0081268</v>
+      </c>
       <c r="E107" t="n">
-        <v>2.0081268</v>
-      </c>
-      <c r="F107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5.5991903e-05</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3648,28 +3804,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>M.020.15.101.240319 Milk churn</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
           <t>Milk churn</t>
         </is>
       </c>
+      <c r="D108" t="n">
+        <v>1.30404</v>
+      </c>
       <c r="E108" t="n">
-        <v>1.30404</v>
-      </c>
-      <c r="F108" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.6360096e-05</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3678,28 +3835,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>M.020.15.102.240319 Cream</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
           <t>Cream</t>
         </is>
       </c>
+      <c r="D109" t="n">
+        <v>4.087590666666666</v>
+      </c>
       <c r="E109" t="n">
-        <v>4.087590666666666</v>
-      </c>
-      <c r="F109" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.00011397287</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3708,28 +3866,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>M.020.15.103.240319 Custard - full variety of flavors</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
           <t>Custard - full variety of flavors</t>
         </is>
       </c>
+      <c r="D110" t="n">
+        <v>1.806521</v>
+      </c>
       <c r="E110" t="n">
-        <v>1.806521</v>
-      </c>
-      <c r="F110" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.0370599e-05</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3738,28 +3897,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>M.020.15.104.240319 Custard - vanilla</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
           <t>Custard - vanilla</t>
         </is>
       </c>
+      <c r="D111" t="n">
+        <v>1.806521</v>
+      </c>
       <c r="E111" t="n">
-        <v>1.806521</v>
-      </c>
-      <c r="F111" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5.0370599e-05</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3768,28 +3928,29 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>M.020.15.105.240319 Cottage cheese - whole</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
           <t>Cottage cheese - whole</t>
         </is>
       </c>
+      <c r="D112" t="n">
+        <v>4.251703666666667</v>
+      </c>
       <c r="E112" t="n">
-        <v>4.251703666666667</v>
-      </c>
-      <c r="F112" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.00011854878</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3798,28 +3959,29 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>M.020.15.106.240319 Cream - vanilla ice cream</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
           <t>Cream - vanilla ice cream</t>
         </is>
       </c>
+      <c r="D113" t="n">
+        <v>3.894319466666667</v>
+      </c>
       <c r="E113" t="n">
-        <v>3.894319466666667</v>
-      </c>
-      <c r="F113" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.00010858396</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3828,28 +3990,29 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>M.020.15.107.240319 Chocolate milk - whole</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
           <t>Chocolate milk - whole</t>
         </is>
       </c>
+      <c r="D114" t="n">
+        <v>2.2643016</v>
+      </c>
       <c r="E114" t="n">
-        <v>2.2643016</v>
-      </c>
-      <c r="F114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6.313473700000001e-05</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3858,28 +4021,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>M.020.15.108.240319 Chocolate milk semi-skimmed</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
           <t>Chocolate milk semi-skimmed</t>
         </is>
       </c>
+      <c r="D115" t="n">
+        <v>2.1640788</v>
+      </c>
       <c r="E115" t="n">
-        <v>2.1640788</v>
-      </c>
-      <c r="F115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6.0340258e-05</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3888,28 +4052,29 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>M.020.15.109.240319 Milk semi-skimmed</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
           <t>Milk semi-skimmed</t>
         </is>
       </c>
+      <c r="D116" t="n">
+        <v>1.800600533333333</v>
+      </c>
       <c r="E116" t="n">
-        <v>1.800600533333333</v>
-      </c>
-      <c r="F116" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5.0205521e-05</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3918,28 +4083,29 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>M.020.15.110.240319 Milk skimmed</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
           <t>Milk skimmed</t>
         </is>
       </c>
+      <c r="D117" t="n">
+        <v>1.7449212</v>
+      </c>
       <c r="E117" t="n">
-        <v>1.7449212</v>
-      </c>
-      <c r="F117" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4.8653033e-05</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3948,28 +4114,29 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>M.020.15.111.240319 Milk whole</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
           <t>Milk whole</t>
         </is>
       </c>
+      <c r="D118" t="n">
+        <v>1.856279933333333</v>
+      </c>
       <c r="E118" t="n">
-        <v>1.856279933333333</v>
-      </c>
-      <c r="F118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5.1758009e-05</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -3978,28 +4145,29 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>M.020.15.112.240319 Yogurt drink - sweetener</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
           <t>Yogurt drink - sweetener</t>
         </is>
       </c>
+      <c r="D119" t="n">
+        <v>1.9529814</v>
+      </c>
       <c r="E119" t="n">
-        <v>1.9529814</v>
-      </c>
-      <c r="F119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5.4454303e-05</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4008,28 +4176,29 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>M.020.15.113.240319 Yogurt whole</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
           <t>Yogurt whole</t>
         </is>
       </c>
+      <c r="D120" t="n">
+        <v>2.1089522</v>
+      </c>
       <c r="E120" t="n">
-        <v>2.1089522</v>
-      </c>
-      <c r="F120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.8803184e-05</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4038,28 +4207,29 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>M.020.15.114.240319 Yogurt semi-skimmed</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
           <t>Yogurt semi-skimmed</t>
         </is>
       </c>
+      <c r="D121" t="n">
+        <v>2.053272866666667</v>
+      </c>
       <c r="E121" t="n">
-        <v>2.053272866666667</v>
-      </c>
-      <c r="F121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5.7250695e-05</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4068,28 +4238,29 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>M.020.15.115.240319 Yogurt low-fat with fruits</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
           <t>Yogurt low-fat with fruits</t>
         </is>
       </c>
+      <c r="D122" t="n">
+        <v>1.927248333333333</v>
+      </c>
       <c r="E122" t="n">
-        <v>1.927248333333333</v>
-      </c>
-      <c r="F122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5.3736797e-05</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4098,28 +4269,29 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>M.020.15.116.240319 Yogurt low fat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Material, Food, Milk and milk products</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
           <t>Yogurt low fat</t>
         </is>
       </c>
+      <c r="D123" t="n">
+        <v>1.997593466666667</v>
+      </c>
       <c r="E123" t="n">
-        <v>1.997593466666667</v>
-      </c>
-      <c r="F123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.5698207e-05</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4128,28 +4300,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>M.020.16.101.240319 Coffee</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
           <t>Coffee</t>
         </is>
       </c>
+      <c r="D124" t="n">
+        <v>3.2781454</v>
+      </c>
       <c r="E124" t="n">
-        <v>3.2781454</v>
-      </c>
-      <c r="F124" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9.1403391e-05</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4158,28 +4331,29 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>M.020.16.102.240319 Cola Light</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
           <t>Cola Light</t>
         </is>
       </c>
+      <c r="D125" t="n">
+        <v>0.4204697666666667</v>
+      </c>
       <c r="E125" t="n">
-        <v>0.4204697666666667</v>
-      </c>
-      <c r="F125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.1723813e-05</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4188,28 +4362,29 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>M.020.16.103.240319 Icetea</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
           <t>Icetea</t>
         </is>
       </c>
+      <c r="D126" t="n">
+        <v>0.53270184</v>
+      </c>
       <c r="E126" t="n">
-        <v>0.53270184</v>
-      </c>
-      <c r="F126" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.4853141e-05</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4218,28 +4393,29 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>M.020.16.104.240319 Fruit drink - 12% fruit concentrate</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
           <t>Fruit drink - 12% fruit concentrate</t>
         </is>
       </c>
+      <c r="D127" t="n">
+        <v>0.5111681733333333</v>
+      </c>
       <c r="E127" t="n">
-        <v>0.5111681733333333</v>
-      </c>
-      <c r="F127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.4252725e-05</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4248,28 +4424,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>M.020.16.105.240319 Fruit drink - 8% fruit concentrate</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
           <t>Fruit drink - 8% fruit concentrate</t>
         </is>
       </c>
+      <c r="D128" t="n">
+        <v>0.4035446466666667</v>
+      </c>
       <c r="E128" t="n">
-        <v>0.4035446466666667</v>
-      </c>
-      <c r="F128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.1251896e-05</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4278,28 +4455,29 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>M.020.16.106.240319 Apple juice</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
           <t>Apple juice</t>
         </is>
       </c>
+      <c r="D129" t="n">
+        <v>0.55985946</v>
+      </c>
       <c r="E129" t="n">
-        <v>0.55985946</v>
-      </c>
-      <c r="F129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.5610367e-05</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4308,28 +4486,29 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>M.020.16.107.240319 Orange juice pasteurized</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
           <t>Orange juice pasteurized</t>
         </is>
       </c>
+      <c r="D130" t="n">
+        <v>1.1593026</v>
+      </c>
       <c r="E130" t="n">
-        <v>1.1593026</v>
-      </c>
-      <c r="F130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.2324433e-05</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4338,28 +4517,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>M.020.16.108.240319 Syrup light</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
           <t>Syrup light</t>
         </is>
       </c>
+      <c r="D131" t="n">
+        <v>0.5429384333333334</v>
+      </c>
       <c r="E131" t="n">
-        <v>0.5429384333333334</v>
-      </c>
-      <c r="F131" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.5138564e-05</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4368,28 +4548,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>M.020.16.109.240319 Syrup</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
           <t>Syrup</t>
         </is>
       </c>
+      <c r="D132" t="n">
+        <v>1.127632266666667</v>
+      </c>
       <c r="E132" t="n">
-        <v>1.127632266666667</v>
-      </c>
-      <c r="F132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.1441381e-05</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4398,28 +4579,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>M.020.16.110.240319 Syrup sweetened</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
           <t>Syrup sweetened</t>
         </is>
       </c>
+      <c r="D133" t="n">
+        <v>3.1510052</v>
+      </c>
       <c r="E133" t="n">
-        <v>3.1510052</v>
-      </c>
-      <c r="F133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8.7858385e-05</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4428,28 +4610,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>M.020.16.111.240319 Mineral water - average</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
           <t>Mineral water - average</t>
         </is>
       </c>
+      <c r="D134" t="n">
+        <v>0.2092323733333334</v>
+      </c>
       <c r="E134" t="n">
-        <v>0.2092323733333334</v>
-      </c>
-      <c r="F134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5.8339538e-06</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4458,28 +4641,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>M.020.16.112.240319 Coke</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
           <t>Coke</t>
         </is>
       </c>
+      <c r="D135" t="n">
+        <v>0.49918984</v>
+      </c>
       <c r="E135" t="n">
-        <v>0.49918984</v>
-      </c>
-      <c r="F135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.3918737e-05</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4488,28 +4672,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>M.020.16.113.240319 Soft drink light</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
           <t>Soft drink light</t>
         </is>
       </c>
+      <c r="D136" t="n">
+        <v>0.4204697666666667</v>
+      </c>
       <c r="E136" t="n">
-        <v>0.4204697666666667</v>
-      </c>
-      <c r="F136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.1723813e-05</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4518,28 +4703,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>M.020.16.114.240319 Soda sugar and caffeine</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
           <t>Soda sugar and caffeine</t>
         </is>
       </c>
+      <c r="D137" t="n">
+        <v>0.4480217933333333</v>
+      </c>
       <c r="E137" t="n">
-        <v>0.4480217933333333</v>
-      </c>
-      <c r="F137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.2492036e-05</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4548,28 +4734,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>M.020.16.115.240319 Tea</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Material, Food, Non-alcoholic drinks</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
           <t>Tea</t>
         </is>
       </c>
+      <c r="D138" t="n">
+        <v>6.194396333333334</v>
+      </c>
       <c r="E138" t="n">
-        <v>6.194396333333334</v>
-      </c>
-      <c r="F138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.00017271621</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4578,28 +4765,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>M.020.17.101.240319 Almonds - without membrane</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
           <t>Almonds - without membrane</t>
         </is>
       </c>
+      <c r="D139" t="n">
+        <v>4.368941533333333</v>
+      </c>
       <c r="E139" t="n">
-        <v>4.368941533333333</v>
-      </c>
-      <c r="F139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.00012181768</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4608,28 +4796,29 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>M.020.17.102.240319 Cashew nuts - unsalted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
           <t>Cashew nuts - unsalted</t>
         </is>
       </c>
+      <c r="D140" t="n">
+        <v>3.7725964</v>
+      </c>
       <c r="E140" t="n">
-        <v>3.7725964</v>
-      </c>
-      <c r="F140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00010519</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4638,28 +4827,29 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>M.020.17.103.240319 Hazelnuts - unsalted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
           <t>Hazelnuts - unsalted</t>
         </is>
       </c>
+      <c r="D141" t="n">
+        <v>3.418018</v>
+      </c>
       <c r="E141" t="n">
-        <v>3.418018</v>
-      </c>
-      <c r="F141" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9.5303412e-05</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4668,28 +4858,29 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>M.020.17.104.240319 Flax seed</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
           <t>Flax seed</t>
         </is>
       </c>
+      <c r="D142" t="n">
+        <v>1.390505533333333</v>
+      </c>
       <c r="E142" t="n">
-        <v>1.390505533333333</v>
-      </c>
-      <c r="F142" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.8770983e-05</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4698,28 +4889,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>M.020.17.105.240319 Peanuts - unsalted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
           <t>Peanuts - unsalted</t>
         </is>
       </c>
+      <c r="D143" t="n">
+        <v>6.776576666666667</v>
+      </c>
       <c r="E143" t="n">
-        <v>6.776576666666667</v>
-      </c>
-      <c r="F143" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.00018894894</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4728,28 +4920,29 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>M.020.17.106.240319 Pistachios - salted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
           <t>Pistachios - salted</t>
         </is>
       </c>
+      <c r="D144" t="n">
+        <v>1.5482088</v>
+      </c>
       <c r="E144" t="n">
-        <v>1.5482088</v>
-      </c>
-      <c r="F144" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.3168169e-05</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4758,28 +4951,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>M.020.17.107.240319 Pistachios - unsalted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
           <t>Pistachios - unsalted</t>
         </is>
       </c>
+      <c r="D145" t="n">
+        <v>1.5576894</v>
+      </c>
       <c r="E145" t="n">
-        <v>1.5576894</v>
-      </c>
-      <c r="F145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4.3432514e-05</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4788,28 +4982,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>M.020.17.108.240319 Walnuts - unsalted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Material, Food, Nuts and seeds</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
           <t>Walnuts - unsalted</t>
         </is>
       </c>
+      <c r="D146" t="n">
+        <v>2.852214</v>
+      </c>
       <c r="E146" t="n">
-        <v>2.852214</v>
-      </c>
-      <c r="F146" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7.9527294e-05</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4818,28 +5013,29 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>M.020.18.101.240319 Kidney beans (can)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Material, Food, Legumes</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
           <t>Kidney beans (can)</t>
         </is>
       </c>
+      <c r="D147" t="n">
+        <v>1.4775104</v>
+      </c>
       <c r="E147" t="n">
-        <v>1.4775104</v>
-      </c>
-      <c r="F147" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4.1196911e-05</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4848,28 +5044,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>M.020.18.102.240319 Kidney beans (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Material, Food, Legumes</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
           <t>Kidney beans (glass)</t>
         </is>
       </c>
+      <c r="D148" t="n">
+        <v>1.537600266666667</v>
+      </c>
       <c r="E148" t="n">
-        <v>1.537600266666667</v>
-      </c>
-      <c r="F148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4.2872375e-05</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4878,28 +5075,29 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>M.020.18.103.240319 Chickpeas</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Material, Food, Legumes</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
           <t>Chickpeas</t>
         </is>
       </c>
+      <c r="D149" t="n">
+        <v>6.216687533333333</v>
+      </c>
       <c r="E149" t="n">
-        <v>6.216687533333333</v>
-      </c>
-      <c r="F149" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.00017333774</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4908,28 +5106,29 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>M.020.19.101.240319 Infant formula - milk powder</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Material, Food, Baby food</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
           <t>Infant formula - milk powder</t>
         </is>
       </c>
+      <c r="D150" t="n">
+        <v>6.4220968</v>
+      </c>
       <c r="E150" t="n">
-        <v>6.4220968</v>
-      </c>
-      <c r="F150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0001790651</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4938,28 +5137,29 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>M.020.20.101.240319 Sprinkles milk</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
           <t>Sprinkles milk</t>
         </is>
       </c>
+      <c r="D151" t="n">
+        <v>2.960943333333334</v>
+      </c>
       <c r="E151" t="n">
-        <v>2.960943333333334</v>
-      </c>
-      <c r="F151" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8.255895600000001e-05</v>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4968,28 +5168,29 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>M.020.20.102.240319 Sprinkles pure</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
           <t>Sprinkles pure</t>
         </is>
       </c>
+      <c r="D152" t="n">
+        <v>1.958008066666667</v>
+      </c>
       <c r="E152" t="n">
-        <v>1.958008066666667</v>
-      </c>
-      <c r="F152" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.4594461e-05</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -4998,28 +5199,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>M.020.20.103.240319 Chocolate milk</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
           <t>Chocolate milk</t>
         </is>
       </c>
+      <c r="D153" t="n">
+        <v>5.575302133333333</v>
+      </c>
       <c r="E153" t="n">
-        <v>5.575302133333333</v>
-      </c>
-      <c r="F153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.00015545422</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5028,28 +5230,29 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>M.020.20.104.240319 Chocolate spread duo</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
           <t>Chocolate spread duo</t>
         </is>
       </c>
+      <c r="D154" t="n">
+        <v>4.0072884</v>
+      </c>
       <c r="E154" t="n">
-        <v>4.0072884</v>
-      </c>
-      <c r="F154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.00011173383</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5058,28 +5261,29 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>M.020.20.105.240319 Chocolate spread hazelnut</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
           <t>Chocolate spread hazelnut</t>
         </is>
       </c>
+      <c r="D155" t="n">
+        <v>4.092887200000001</v>
+      </c>
       <c r="E155" t="n">
-        <v>4.092887200000001</v>
-      </c>
-      <c r="F155" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.00011412056</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5088,28 +5292,29 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>M.020.20.106.240319 Honey (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
           <t>Honey (glass)</t>
         </is>
       </c>
+      <c r="D156" t="n">
+        <v>1.042067133333333</v>
+      </c>
       <c r="E156" t="n">
-        <v>1.042067133333333</v>
-      </c>
-      <c r="F156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.9055597e-05</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5118,28 +5323,29 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>M.020.20.107.240319 Honey (bottle)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
           <t>Honey (bottle)</t>
         </is>
       </c>
+      <c r="D157" t="n">
+        <v>0.7847258</v>
+      </c>
       <c r="E157" t="n">
-        <v>0.7847258</v>
-      </c>
-      <c r="F157" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.1880237e-05</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5148,28 +5354,29 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>M.020.20.108.240319 Water ice</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
           <t>Water ice</t>
         </is>
       </c>
+      <c r="D158" t="n">
+        <v>0.7097576</v>
+      </c>
       <c r="E158" t="n">
-        <v>0.7097576</v>
-      </c>
-      <c r="F158" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.9789925e-05</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5178,28 +5385,29 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>M.020.20.109.240319 Jam (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
           <t>Jam (glass)</t>
         </is>
       </c>
+      <c r="D159" t="n">
+        <v>1.6747628</v>
+      </c>
       <c r="E159" t="n">
-        <v>1.6747628</v>
-      </c>
-      <c r="F159" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4.6696831e-05</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5208,28 +5416,29 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>M.020.20.110.240319 Granulated sugar</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
           <t>Granulated sugar</t>
         </is>
       </c>
+      <c r="D160" t="n">
+        <v>0.7262147333333334</v>
+      </c>
       <c r="E160" t="n">
-        <v>0.7262147333333334</v>
-      </c>
-      <c r="F160" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.0248794e-05</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5238,28 +5447,29 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>M.020.20.111.240319 Apple syrup</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Material, Food, Sugar, candy, sweet toppings and sweet sauces</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
           <t>Apple syrup</t>
         </is>
       </c>
+      <c r="D161" t="n">
+        <v>1.1733856</v>
+      </c>
       <c r="E161" t="n">
-        <v>1.1733856</v>
-      </c>
-      <c r="F161" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.2717104e-05</v>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5268,28 +5478,29 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>M.020.21.101.240319 Butter - salted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Material, Food, Fats and oils</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
           <t>Butter - salted</t>
         </is>
       </c>
+      <c r="D162" t="n">
+        <v>11.24462666666667</v>
+      </c>
       <c r="E162" t="n">
-        <v>11.24462666666667</v>
-      </c>
-      <c r="F162" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.00031353002</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5298,28 +5509,29 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>M.020.21.102.240319 Butter - unsalted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Material, Food, Fats and oils</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
           <t>Butter - unsalted</t>
         </is>
       </c>
+      <c r="D163" t="n">
+        <v>11.24388133333333</v>
+      </c>
       <c r="E163" t="n">
-        <v>11.24388133333333</v>
-      </c>
-      <c r="F163" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.00031350925</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5328,28 +5540,29 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>M.020.21.103.240319 Frying fat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Material, Food, Fats and oils</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
           <t>Frying fat</t>
         </is>
       </c>
+      <c r="D164" t="n">
+        <v>4.428921333333333</v>
+      </c>
       <c r="E164" t="n">
-        <v>4.428921333333333</v>
-      </c>
-      <c r="F164" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.00012349008</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5358,28 +5571,29 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>M.020.21.104.240319 Halvarine</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Material, Food, Fats and oils</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
           <t>Halvarine</t>
         </is>
       </c>
+      <c r="D165" t="n">
+        <v>2.159321333333334</v>
+      </c>
       <c r="E165" t="n">
-        <v>2.159321333333334</v>
-      </c>
-      <c r="F165" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6.0207609e-05</v>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5388,28 +5602,29 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>M.020.21.105.240319 Margarine</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Material, Food, Fats and oils</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
           <t>Margarine</t>
         </is>
       </c>
+      <c r="D166" t="n">
+        <v>4.4312696</v>
+      </c>
       <c r="E166" t="n">
-        <v>4.4312696</v>
-      </c>
-      <c r="F166" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.00012355555</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5418,28 +5633,29 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>M.020.21.106.240319 Olive oil</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Material, Food, Fats and oils</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
           <t>Olive oil</t>
         </is>
       </c>
+      <c r="D167" t="n">
+        <v>6.498118866666667</v>
+      </c>
       <c r="E167" t="n">
-        <v>6.498118866666667</v>
-      </c>
-      <c r="F167" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0001811848</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5448,28 +5664,29 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>M.020.21.107.240319 Sunflower oil</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Material, Food, Fats and oils</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
           <t>Sunflower oil</t>
         </is>
       </c>
+      <c r="D168" t="n">
+        <v>4.47832</v>
+      </c>
       <c r="E168" t="n">
-        <v>4.47832</v>
-      </c>
-      <c r="F168" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.00012486744</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5478,28 +5695,29 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>M.020.22.101.240319 Catfish</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
           <t>Catfish</t>
         </is>
       </c>
+      <c r="D169" t="n">
+        <v>16.75108733333333</v>
+      </c>
       <c r="E169" t="n">
-        <v>16.75108733333333</v>
-      </c>
-      <c r="F169" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.00046706476</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5508,28 +5726,29 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>M.020.22.102.240319 Fried fish</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
           <t>Fried fish</t>
         </is>
       </c>
+      <c r="D170" t="n">
+        <v>5.931984533333334</v>
+      </c>
       <c r="E170" t="n">
-        <v>5.931984533333334</v>
-      </c>
-      <c r="F170" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.00016539947</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5538,28 +5757,29 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>M.020.22.103.240319 Cod fillet</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
           <t>Cod fillet</t>
         </is>
       </c>
+      <c r="D171" t="n">
+        <v>5.370545933333334</v>
+      </c>
       <c r="E171" t="n">
-        <v>5.370545933333334</v>
-      </c>
-      <c r="F171" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.00014974507</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5568,28 +5788,29 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>M.020.22.104.240319 Fish sticks</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
           <t>Fish sticks</t>
         </is>
       </c>
+      <c r="D172" t="n">
+        <v>4.824102266666667</v>
+      </c>
       <c r="E172" t="n">
-        <v>4.824102266666667</v>
-      </c>
-      <c r="F172" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00013450877</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5598,28 +5819,29 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>M.020.22.105.240319 Herring in tomato sauce</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
           <t>Herring in tomato sauce</t>
         </is>
       </c>
+      <c r="D173" t="n">
+        <v>1.821613533333334</v>
+      </c>
       <c r="E173" t="n">
-        <v>1.821613533333334</v>
-      </c>
-      <c r="F173" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.0791419e-05</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5628,28 +5850,29 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>M.020.22.106.240319 Herring in (sweet) and sour</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
           <t>Herring in (sweet) and sour</t>
         </is>
       </c>
+      <c r="D174" t="n">
+        <v>3.265126066666667</v>
+      </c>
       <c r="E174" t="n">
-        <v>3.265126066666667</v>
-      </c>
-      <c r="F174" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9.1040379e-05</v>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5658,28 +5881,29 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>M.020.22.107.240319 Herring salted</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
           <t>Herring salted</t>
         </is>
       </c>
+      <c r="D175" t="n">
+        <v>2.338942866666667</v>
+      </c>
       <c r="E175" t="n">
-        <v>2.338942866666667</v>
-      </c>
-      <c r="F175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6.5215934e-05</v>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5688,28 +5912,29 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>M.020.22.108.240319 Lemon sole</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
           <t>Lemon sole</t>
         </is>
       </c>
+      <c r="D176" t="n">
+        <v>5.638334866666667</v>
+      </c>
       <c r="E176" t="n">
-        <v>5.638334866666667</v>
-      </c>
-      <c r="F176" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.00015721174</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5718,28 +5943,29 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>M.020.22.109.240319 Mackerel fillet smoked</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
           <t>Mackerel fillet smoked</t>
         </is>
       </c>
+      <c r="D177" t="n">
+        <v>1.735958666666667</v>
+      </c>
       <c r="E177" t="n">
-        <v>1.735958666666667</v>
-      </c>
-      <c r="F177" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.8403134e-05</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5748,28 +5974,29 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>M.020.22.110.240319 Pangasius</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
           <t>Pangasius</t>
         </is>
       </c>
+      <c r="D178" t="n">
+        <v>10.82117866666667</v>
+      </c>
       <c r="E178" t="n">
-        <v>10.82117866666667</v>
-      </c>
-      <c r="F178" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.00030172317</v>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5778,28 +6005,29 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>M.020.22.111.240319 Plaice</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
           <t>Plaice</t>
         </is>
       </c>
+      <c r="D179" t="n">
+        <v>5.638334866666667</v>
+      </c>
       <c r="E179" t="n">
-        <v>5.638334866666667</v>
-      </c>
-      <c r="F179" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.00015721174</v>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5808,28 +6036,29 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>M.020.22.112.240319 Pollock</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
           <t>Pollock</t>
         </is>
       </c>
+      <c r="D180" t="n">
+        <v>6.975402000000001</v>
+      </c>
       <c r="E180" t="n">
-        <v>6.975402000000001</v>
-      </c>
-      <c r="F180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.00019449271</v>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5838,28 +6067,29 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>M.020.22.113.240319 Canned salmon - farmed fish</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
           <t>Canned salmon - farmed fish</t>
         </is>
       </c>
+      <c r="D181" t="n">
+        <v>5.508280133333334</v>
+      </c>
       <c r="E181" t="n">
-        <v>5.508280133333334</v>
-      </c>
-      <c r="F181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.00015358547</v>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5868,28 +6098,29 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>M.020.22.114.240319 Canned salmon - wild catch</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
           <t>Canned salmon - wild catch</t>
         </is>
       </c>
+      <c r="D182" t="n">
+        <v>3.480321733333334</v>
+      </c>
       <c r="E182" t="n">
-        <v>3.480321733333334</v>
-      </c>
-      <c r="F182" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9.7040605e-05</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5898,28 +6129,29 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>M.020.22.115.240319 Salmon fillet - farmed fish</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
           <t>Salmon fillet - farmed fish</t>
         </is>
       </c>
+      <c r="D183" t="n">
+        <v>5.314837666666667</v>
+      </c>
       <c r="E183" t="n">
-        <v>5.314837666666667</v>
-      </c>
-      <c r="F183" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.00014819178</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5928,28 +6160,29 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>M.020.22.116.240319 Salmon fillet - wild catch</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
           <t>Salmon fillet - wild catch</t>
         </is>
       </c>
+      <c r="D184" t="n">
+        <v>3.286879266666666</v>
+      </c>
       <c r="E184" t="n">
-        <v>3.286879266666666</v>
-      </c>
-      <c r="F184" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9.1646915e-05</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5958,28 +6191,29 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>M.020.22.117.240319 Smoked salmon - farmed fish</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
           <t>Smoked salmon - farmed fish</t>
         </is>
       </c>
+      <c r="D185" t="n">
+        <v>5.933634333333333</v>
+      </c>
       <c r="E185" t="n">
-        <v>5.933634333333333</v>
-      </c>
-      <c r="F185" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.00016544547</v>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -5988,28 +6222,29 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>M.020.22.118.240319 Smoked salmon - wild catch</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
           <t>Smoked salmon - wild catch</t>
         </is>
       </c>
+      <c r="D186" t="n">
+        <v>3.6803472</v>
+      </c>
       <c r="E186" t="n">
-        <v>3.6803472</v>
-      </c>
-      <c r="F186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.00010261785</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6018,28 +6253,29 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>M.020.22.119.240319 Dutch shrimps</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
           <t>Dutch shrimps</t>
         </is>
       </c>
+      <c r="D187" t="n">
+        <v>10.49648266666667</v>
+      </c>
       <c r="E187" t="n">
-        <v>10.49648266666667</v>
-      </c>
-      <c r="F187" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.00029266979</v>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6048,28 +6284,29 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>M.020.22.120.240319 Tilapia</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
           <t>Tilapia</t>
         </is>
       </c>
+      <c r="D188" t="n">
+        <v>18.88228866666667</v>
+      </c>
       <c r="E188" t="n">
-        <v>18.88228866666667</v>
-      </c>
-      <c r="F188" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.00052648832</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6078,28 +6315,29 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>M.020.22.121.240319 Trout</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
           <t>Trout</t>
         </is>
       </c>
+      <c r="D189" t="n">
+        <v>10.25567333333333</v>
+      </c>
       <c r="E189" t="n">
-        <v>10.25567333333333</v>
-      </c>
-      <c r="F189" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.00028595538</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6108,28 +6346,29 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>M.020.22.122.240319 Canned tuna</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
           <t>Canned tuna</t>
         </is>
       </c>
+      <c r="D190" t="n">
+        <v>13.678198</v>
+      </c>
       <c r="E190" t="n">
-        <v>13.678198</v>
-      </c>
-      <c r="F190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.00038138446</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6138,28 +6377,29 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>M.020.22.123.240319 Gourmet fish</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Material, Food, Fish</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
           <t>Gourmet fish</t>
         </is>
       </c>
+      <c r="D191" t="n">
+        <v>3.780759666666667</v>
+      </c>
       <c r="E191" t="n">
-        <v>3.780759666666667</v>
-      </c>
-      <c r="F191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.00010541761</v>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6168,28 +6408,29 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>M.020.23.101.240319 Beef fritters</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
           <t>Beef fritters</t>
         </is>
       </c>
+      <c r="D192" t="n">
+        <v>22.211272</v>
+      </c>
       <c r="E192" t="n">
-        <v>22.211272</v>
-      </c>
-      <c r="F192" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.0006193092</v>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6198,28 +6439,29 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>M.020.23.102.240319 Beef roast</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
           <t>Beef roast</t>
         </is>
       </c>
+      <c r="D193" t="n">
+        <v>27.14357266666667</v>
+      </c>
       <c r="E193" t="n">
-        <v>27.14357266666667</v>
-      </c>
-      <c r="F193" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.00075683482</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6228,28 +6470,29 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>M.020.23.103.240319 Beef steak</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
           <t>Beef steak</t>
         </is>
       </c>
+      <c r="D194" t="n">
+        <v>22.211272</v>
+      </c>
       <c r="E194" t="n">
-        <v>22.211272</v>
-      </c>
-      <c r="F194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0006193092</v>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6258,28 +6501,29 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>M.020.23.104.240319 Chicken breast</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
           <t>Chicken breast</t>
         </is>
       </c>
+      <c r="D195" t="n">
+        <v>6.422434333333333</v>
+      </c>
       <c r="E195" t="n">
-        <v>6.422434333333333</v>
-      </c>
-      <c r="F195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.00017907451</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6288,28 +6532,29 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>M.020.23.105.240319 Chicken with skin</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
           <t>Chicken with skin</t>
         </is>
       </c>
+      <c r="D196" t="n">
+        <v>6.422434333333333</v>
+      </c>
       <c r="E196" t="n">
-        <v>6.422434333333333</v>
-      </c>
-      <c r="F196" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.00017907451</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6318,28 +6563,29 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>M.020.23.106.240319 Hamburger</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
           <t>Hamburger</t>
         </is>
       </c>
+      <c r="D197" t="n">
+        <v>20.34516733333333</v>
+      </c>
       <c r="E197" t="n">
-        <v>20.34516733333333</v>
-      </c>
-      <c r="F197" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.00056727726</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6348,28 +6594,29 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>M.020.23.108.240319 Minced meat - beef</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
           <t>Minced meat - beef</t>
         </is>
       </c>
+      <c r="D198" t="n">
+        <v>22.61894933333334</v>
+      </c>
       <c r="E198" t="n">
-        <v>22.61894933333334</v>
-      </c>
-      <c r="F198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.00063067632</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6378,28 +6625,29 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>M.020.23.109.240319 Minced meat - half-and-half</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
           <t>Minced meat - half-and-half</t>
         </is>
       </c>
+      <c r="D199" t="n">
+        <v>15.19911666666667</v>
+      </c>
       <c r="E199" t="n">
-        <v>15.19911666666667</v>
-      </c>
-      <c r="F199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.0004237917</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6408,28 +6656,29 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>M.020.23.110.240319 Pork - lean</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
           <t>Pork - lean</t>
         </is>
       </c>
+      <c r="D200" t="n">
+        <v>7.400993333333334</v>
+      </c>
       <c r="E200" t="n">
-        <v>7.400993333333334</v>
-      </c>
-      <c r="F200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.00020635933</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6438,28 +6687,29 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>M.020.23.111.240319 Pork - fat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
           <t>Pork - fat</t>
         </is>
       </c>
+      <c r="D201" t="n">
+        <v>7.400993333333334</v>
+      </c>
       <c r="E201" t="n">
-        <v>7.400993333333334</v>
-      </c>
-      <c r="F201" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.00020635933</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6468,28 +6718,29 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>M.020.23.112.240319 Pork shoulder chop</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
           <t>Pork shoulder chop</t>
         </is>
       </c>
+      <c r="D202" t="n">
+        <v>7.400993333333334</v>
+      </c>
       <c r="E202" t="n">
-        <v>7.400993333333334</v>
-      </c>
-      <c r="F202" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.00020635933</v>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6498,28 +6749,29 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>M.020.23.113.240319 Knaksausage (can)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
           <t>Knaksausage (can)</t>
         </is>
       </c>
+      <c r="D203" t="n">
+        <v>12.440092</v>
+      </c>
       <c r="E203" t="n">
-        <v>12.440092</v>
-      </c>
-      <c r="F203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.00034686278</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6528,28 +6780,29 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>M.020.23.114.240319 Knaksausage (glass)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
           <t>Knaksausage (glass)</t>
         </is>
       </c>
+      <c r="D204" t="n">
+        <v>12.500182</v>
+      </c>
       <c r="E204" t="n">
-        <v>12.500182</v>
-      </c>
-      <c r="F204" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.00034853824</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6558,28 +6811,29 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>M.020.23.115.240319 Pork bratwurst</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
           <t>Pork bratwurst</t>
         </is>
       </c>
+      <c r="D205" t="n">
+        <v>10.17476866666667</v>
+      </c>
       <c r="E205" t="n">
-        <v>10.17476866666667</v>
-      </c>
-      <c r="F205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.00028369955</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6588,28 +6842,29 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>M.020.23.116.240319 Beef smoked sausage</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
           <t>Beef smoked sausage</t>
         </is>
       </c>
+      <c r="D206" t="n">
+        <v>19.03839933333333</v>
+      </c>
       <c r="E206" t="n">
-        <v>19.03839933333333</v>
-      </c>
-      <c r="F206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.0005308411</v>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6618,28 +6873,29 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>M.020.23.117.240319 Veal</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Material, Food, Meat and poultry</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
           <t>Veal</t>
         </is>
       </c>
+      <c r="D207" t="n">
+        <v>18.60436533333333</v>
+      </c>
       <c r="E207" t="n">
-        <v>18.60436533333333</v>
-      </c>
-      <c r="F207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.00051873907</v>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6648,28 +6904,29 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>M.020.24.101.240319 Vegetarian minced meat - mycoprotein</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Material, Food, Meat substitutes and dairy substitutes</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
           <t>Vegetarian minced meat - mycoprotein</t>
         </is>
       </c>
+      <c r="D208" t="n">
+        <v>3.354277733333334</v>
+      </c>
       <c r="E208" t="n">
-        <v>3.354277733333334</v>
-      </c>
-      <c r="F208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>9.3526163e-05</v>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6678,28 +6935,29 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>M.020.24.102.240319 Vegetarian luncheon meat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Material, Food, Meat substitutes and dairy substitutes</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
           <t>Vegetarian luncheon meat</t>
         </is>
       </c>
+      <c r="D209" t="n">
+        <v>4.3269226</v>
+      </c>
       <c r="E209" t="n">
-        <v>4.3269226</v>
-      </c>
-      <c r="F209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.00012064608</v>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6708,28 +6966,29 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>M.020.24.103.240319 Soy drink natural</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Material, Food, Meat substitutes and dairy substitutes</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
           <t>Soy drink natural</t>
         </is>
       </c>
+      <c r="D210" t="n">
+        <v>0.6640703600000001</v>
+      </c>
       <c r="E210" t="n">
-        <v>0.6640703600000001</v>
-      </c>
-      <c r="F210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.8516044e-05</v>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6738,28 +6997,29 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>M.020.24.104.240319 Tahoe</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Material, Food, Meat substitutes and dairy substitutes</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
           <t>Tahoe</t>
         </is>
       </c>
+      <c r="D211" t="n">
+        <v>3.271232</v>
+      </c>
       <c r="E211" t="n">
-        <v>3.271232</v>
-      </c>
-      <c r="F211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>9.1210628e-05</v>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6768,28 +7028,29 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>M.020.24.105.240319 Vegetarian disc</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Material, Food, Meat substitutes and dairy substitutes</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
           <t>Vegetarian disc</t>
         </is>
       </c>
+      <c r="D212" t="n">
+        <v>3.2854106</v>
+      </c>
       <c r="E212" t="n">
-        <v>3.2854106</v>
-      </c>
-      <c r="F212" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>9.160596499999999e-05</v>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6798,28 +7059,29 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>M.020.24.106.240319 Vegetarian hamburger</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Material, Food, Meat substitutes and dairy substitutes</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
           <t>Vegetarian hamburger</t>
         </is>
       </c>
+      <c r="D213" t="n">
+        <v>2.610752066666667</v>
+      </c>
       <c r="E213" t="n">
-        <v>2.610752066666667</v>
-      </c>
-      <c r="F213" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7.2794694e-05</v>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6828,28 +7090,29 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>M.020.24.107.240319 Vegetarian schnitzel</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Material, Food, Meat substitutes and dairy substitutes</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
           <t>Vegetarian schnitzel</t>
         </is>
       </c>
+      <c r="D214" t="n">
+        <v>4.356974933333333</v>
+      </c>
       <c r="E214" t="n">
-        <v>4.356974933333333</v>
-      </c>
-      <c r="F214" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.00012148402</v>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6858,28 +7121,29 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>M.020.25.101.240319 Breakfast bacon</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
           <t>Breakfast bacon</t>
         </is>
       </c>
+      <c r="D215" t="n">
+        <v>9.471239333333335</v>
+      </c>
       <c r="E215" t="n">
-        <v>9.471239333333335</v>
-      </c>
-      <c r="F215" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.00026408328</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6888,28 +7152,29 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>M.020.25.102.240319 Beef smoked meat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
           <t>Beef smoked meat</t>
         </is>
       </c>
+      <c r="D216" t="n">
+        <v>24.33416</v>
+      </c>
       <c r="E216" t="n">
-        <v>24.33416</v>
-      </c>
-      <c r="F216" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.00067850095</v>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6918,28 +7183,29 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>M.020.25.103.240319 Chicken breast</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
           <t>Chicken breast</t>
         </is>
       </c>
+      <c r="D217" t="n">
+        <v>8.443432666666666</v>
+      </c>
       <c r="E217" t="n">
-        <v>8.443432666666666</v>
-      </c>
-      <c r="F217" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.00023542531</v>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6948,28 +7214,29 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>M.020.25.104.240319 Filet Americain</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
           <t>Filet Americain</t>
         </is>
       </c>
+      <c r="D218" t="n">
+        <v>15.679662</v>
+      </c>
       <c r="E218" t="n">
-        <v>15.679662</v>
-      </c>
-      <c r="F218" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.00043719059</v>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -6978,28 +7245,29 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>M.020.25.105.240319 Gammon</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
           <t>Gammon</t>
         </is>
       </c>
+      <c r="D219" t="n">
+        <v>9.471239333333335</v>
+      </c>
       <c r="E219" t="n">
-        <v>9.471239333333335</v>
-      </c>
-      <c r="F219" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.00026408328</v>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7008,28 +7276,29 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>M.020.25.106.240319 Shoulder ham</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
           <t>Shoulder ham</t>
         </is>
       </c>
+      <c r="D220" t="n">
+        <v>9.476926666666667</v>
+      </c>
       <c r="E220" t="n">
-        <v>9.476926666666667</v>
-      </c>
-      <c r="F220" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.00026424187</v>
+      </c>
+      <c r="G220" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7038,28 +7307,29 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>M.020.25.107.240319 Spread liver sausage</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
           <t>Spread liver sausage</t>
         </is>
       </c>
+      <c r="D221" t="n">
+        <v>4.872871466666667</v>
+      </c>
       <c r="E221" t="n">
-        <v>4.872871466666667</v>
-      </c>
-      <c r="F221" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.00013586859</v>
+      </c>
+      <c r="G221" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7068,28 +7338,29 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>M.020.25.108.240319 Roast minced meat</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
           <t>Roast minced meat</t>
         </is>
       </c>
+      <c r="D222" t="n">
+        <v>7.129281333333334</v>
+      </c>
       <c r="E222" t="n">
-        <v>7.129281333333334</v>
-      </c>
-      <c r="F222" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.00019878327</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7098,28 +7369,29 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>M.020.25.109.240319 Cooked sausage</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
           <t>Cooked sausage</t>
         </is>
       </c>
+      <c r="D223" t="n">
+        <v>13.41867666666667</v>
+      </c>
       <c r="E223" t="n">
-        <v>13.41867666666667</v>
-      </c>
-      <c r="F223" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.00037414831</v>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7128,28 +7400,29 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>M.020.25.110.240319 Sandwich sausage</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
           <t>Sandwich sausage</t>
         </is>
       </c>
+      <c r="D224" t="n">
+        <v>5.598164866666667</v>
+      </c>
       <c r="E224" t="n">
-        <v>5.598164866666667</v>
-      </c>
-      <c r="F224" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.00015609169</v>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7158,28 +7431,29 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>M.020.25.111.240319 Beef sausage</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
           <t>Beef sausage</t>
         </is>
       </c>
+      <c r="D225" t="n">
+        <v>21.480884</v>
+      </c>
       <c r="E225" t="n">
-        <v>21.480884</v>
-      </c>
-      <c r="F225" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.00059894404</v>
+      </c>
+      <c r="G225" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7188,28 +7462,29 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>M.020.25.112.240319 Saveloy</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Material, Food, Meats</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
           <t>Saveloy</t>
         </is>
       </c>
+      <c r="D226" t="n">
+        <v>13.01485133333333</v>
+      </c>
       <c r="E226" t="n">
-        <v>13.01485133333333</v>
-      </c>
-      <c r="F226" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.00036288859</v>
+      </c>
+      <c r="G226" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7218,28 +7493,29 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>N.010.10.101.240319 Baking (1.5 MJe per kg product)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Material, Food, Processing in kitchen</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
           <t>Baking (1.5 MJe per kg product)</t>
         </is>
       </c>
+      <c r="D227" t="n">
+        <v>0.2034620666666667</v>
+      </c>
       <c r="E227" t="n">
-        <v>0.2034620666666667</v>
-      </c>
-      <c r="F227" t="inlineStr">
+        <v>3.67356</v>
+      </c>
+      <c r="F227" t="n">
+        <v>5.6730623e-06</v>
+      </c>
+      <c r="G227" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7248,28 +7524,29 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>N.010.10.102.240319 Boiling (1.1 MJe per kg product)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Material, Food, Processing in kitchen</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
           <t>Boiling (1.1 MJe per kg product)</t>
         </is>
       </c>
+      <c r="D228" t="n">
+        <v>0.1492055133333333</v>
+      </c>
       <c r="E228" t="n">
-        <v>0.1492055133333333</v>
-      </c>
-      <c r="F228" t="inlineStr">
+        <v>2.693944</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4.1602457e-06</v>
+      </c>
+      <c r="G228" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7278,28 +7555,29 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>N.010.10.103.240319 Roasting chicken (3 MJe per kg product)</t>
+          <t>food</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>food</t>
+          <t xml:space="preserve">kg </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Material, Food, Processing in kitchen</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
           <t>Roasting chicken (3 MJe per kg product)</t>
         </is>
       </c>
+      <c r="D229" t="n">
+        <v>0.4069241333333334</v>
+      </c>
       <c r="E229" t="n">
-        <v>0.4069241333333334</v>
-      </c>
-      <c r="F229" t="inlineStr">
+        <v>7.3471201</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.1346125e-05</v>
+      </c>
+      <c r="G229" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -7307,5 +7585,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>